--- a/ute/ui_config_patch/ABE012/defaultLanguage/input.xlsx
+++ b/ute/ui_config_patch/ABE012/defaultLanguage/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="9015"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -11497,8 +11497,7 @@
     <t>سحب قنبلة الدخان</t>
   </si>
   <si>
-    <t>Pod был 
-удален.</t>
+    <t>Pod был удален.</t>
   </si>
   <si>
     <t>ぬきだす</t>
@@ -11628,7 +11627,7 @@
     <t>التسجيل الصوتي</t>
   </si>
   <si>
-    <t>записывать (звук)</t>
+    <t>записывать</t>
   </si>
   <si>
     <t>録音</t>
@@ -12305,12 +12304,10 @@
     <t>Clear successfully</t>
   </si>
   <si>
-    <t>مسح
-بنجاح</t>
-  </si>
-  <si>
-    <t>Очистить
-Успешно</t>
+    <t>مسح بنجاح</t>
+  </si>
+  <si>
+    <t>Очистить Успешно</t>
   </si>
   <si>
     <t>正常にクリアされました</t>
@@ -12323,22 +12320,19 @@
     <t>Erfolgreich gelöscht</t>
   </si>
   <si>
-    <t>Borrado 
-exitosamente</t>
+    <t>Borrado exitosamente</t>
   </si>
   <si>
     <t>Effacé avec succès</t>
   </si>
   <si>
-    <t>Bersihkan
-berhasil</t>
+    <t>Bersihkan berhasil</t>
   </si>
   <si>
     <t>Cancellazione avvenuta con successo</t>
   </si>
   <si>
-    <t>Wyczyszczono 
-pomyślnie</t>
+    <t>Wyczyszczono pomyślnie</t>
   </si>
   <si>
     <t>Xoá
@@ -12489,8 +12483,7 @@
     <t>الطفل قفل مفتوح</t>
   </si>
   <si>
-    <t>Детский замок
-Открыто</t>
+    <t>Детский замок Открыто</t>
   </si>
   <si>
     <t>子供用ロックが開かれています</t>
@@ -12503,22 +12496,19 @@
     <t>Das Kinder Schloss ist geöffnet worden</t>
   </si>
   <si>
-    <t>El bloqueo infantil 
-se ha abierto</t>
+    <t>El bloqueo infantil se ha abierto</t>
   </si>
   <si>
     <t>Le verrouillage d'enfant a été ouvert</t>
   </si>
   <si>
-    <t>The child lock 
-telah dibuka</t>
+    <t>The child lock telah dibuka</t>
   </si>
   <si>
     <t>La serratura per bambini è stata aperta</t>
   </si>
   <si>
-    <t>Blokada dziecka 
-została odłączona</t>
+    <t>Blokada dziecka została odłączona</t>
   </si>
   <si>
     <t>Khóa trẻ em đã mở</t>
@@ -12539,8 +12529,7 @@
     <t>طريقة واحدة</t>
   </si>
   <si>
-    <t>Однослойная 
-сетка</t>
+    <t>Однослойная сетка</t>
   </si>
   <si>
     <t>シングル</t>
@@ -13668,15 +13657,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
       <name val="MS Gothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -15841,11 +15830,11 @@
   <dimension ref="A1:BA681"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="5" ySplit="2" topLeftCell="G253" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="2" topLeftCell="F261" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomRight" activeCell="Q261" sqref="Q261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="20.25"/>
